--- a/documents/Project-01 - Simulaton Exercise.xlsx
+++ b/documents/Project-01 - Simulaton Exercise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="delay=0" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
   <si>
     <t>Tempo</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>2,0,1,0,1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>Esperado 0</t>
+  </si>
+  <si>
+    <t>Saída 0</t>
   </si>
 </sst>
 </file>
@@ -511,6 +517,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -518,10 +528,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1262,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1288,38 +1294,38 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="K2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="30" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="30" t="s">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="30" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="30" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="31"/>
+      <c r="Z2" s="33"/>
     </row>
     <row r="3" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1613,13 +1619,13 @@
       <c r="W7" s="28">
         <v>0</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="30">
         <v>0</v>
       </c>
       <c r="Y7" s="28">
         <v>1</v>
       </c>
-      <c r="Z7" s="33">
+      <c r="Z7" s="30">
         <v>1</v>
       </c>
     </row>
@@ -1844,13 +1850,13 @@
         <f>J4</f>
         <v>0</v>
       </c>
-      <c r="K13" s="29" t="str">
+      <c r="K13" s="31" t="str">
         <f>CONCATENATE(K4,",",M4,",",O4,",",Q4,",",S4,",",U4,",",W4,",",Y4)</f>
         <v>0,1,1,1,1,0,1,0</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -1867,13 +1873,13 @@
         <f>J5</f>
         <v>1</v>
       </c>
-      <c r="K14" s="29" t="str">
+      <c r="K14" s="31" t="str">
         <f>CONCATENATE(K5,",",M5,",",O5,",",Q5,",",S5,",",U5,",",W5,",",Y5)</f>
         <v>0,1,0,1,1,1,1,0</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1883,10 +1889,10 @@
         <v>31</v>
       </c>
       <c r="J15" s="23"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -1899,13 +1905,13 @@
         <f t="shared" ref="J16:J21" si="0">J7</f>
         <v>2</v>
       </c>
-      <c r="K16" s="29" t="str">
+      <c r="K16" s="31" t="str">
         <f>CONCATENATE(K7,",",M7,",",O7,",",Q7,",",S7,",",U7,",",W7,",",Y7)</f>
         <v>0,1,0,1,1,1,0,1</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -1915,82 +1921,82 @@
         <v>33</v>
       </c>
       <c r="J17" s="23"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="J18" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K18" s="29" t="str">
+      <c r="K18" s="31" t="str">
         <f t="shared" ref="K18:K21" si="1">CONCATENATE(K9,",",M9,",",O9,",",Q9,",",S9,",",U9,",",W9,",",Y9)</f>
         <v>,,,,1,0,0,1</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="J19" s="23">
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
-      <c r="K19" s="29" t="str">
+      <c r="K19" s="31" t="str">
         <f t="shared" si="1"/>
         <v>,,,,1,0,0,1</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="J20" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K20" s="29" t="str">
+      <c r="K20" s="31" t="str">
         <f t="shared" si="1"/>
         <v>,,,,1,0,0,1</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="J21" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="29" t="str">
+      <c r="K21" s="31" t="str">
         <f t="shared" si="1"/>
         <v>,,,,,,,</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="K20:N20"/>
     <mergeCell ref="K21:N21"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2001,7 +2007,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,17 +2019,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
       <c r="F3" t="str">
@@ -2035,11 +2041,11 @@
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>48</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F10" si="0">IF(A4=C4,"igual","diferente")</f>
+        <f t="shared" ref="F4:F8" si="0">IF(A4=C4,"igual","diferente")</f>
         <v>igual</v>
       </c>
     </row>
@@ -2047,7 +2053,7 @@
       <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F5" t="str">
@@ -2059,7 +2065,7 @@
       <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F6" t="str">
@@ -2071,7 +2077,7 @@
       <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="str">
@@ -2083,7 +2089,7 @@
       <c r="A8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="29" t="s">
         <v>52</v>
       </c>
       <c r="F8" t="str">
@@ -2092,10 +2098,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="32"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="32"/>
+      <c r="C10" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3397,38 +3403,38 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="K2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="30" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="30" t="s">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="30" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="30" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="30" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="30" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="31"/>
+      <c r="Z2" s="33"/>
     </row>
     <row r="3" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4019,13 +4025,13 @@
         <f>J4</f>
         <v>0</v>
       </c>
-      <c r="K13" s="29" t="str">
+      <c r="K13" s="31" t="str">
         <f>CONCATENATE(K4,",",M4,",",O4,",",Q4,",",S4,",",U4,",",W4,",",Y4)</f>
         <v>0,0,0,0,1,0,1,0</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -4042,13 +4048,13 @@
         <f>J5</f>
         <v>1</v>
       </c>
-      <c r="K14" s="29" t="str">
+      <c r="K14" s="31" t="str">
         <f>CONCATENATE(K5,",",M5,",",O5,",",Q5,",",S5,",",U5,",",W5,",",Y5)</f>
         <v>0,1,1,1,1,1,1,0</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -4058,10 +4064,10 @@
         <v>31</v>
       </c>
       <c r="J15" s="23"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -4074,13 +4080,13 @@
         <f t="shared" ref="J16:J21" si="0">J7</f>
         <v>2</v>
       </c>
-      <c r="K16" s="29" t="str">
+      <c r="K16" s="31" t="str">
         <f>CONCATENATE(K7,",",M7,",",O7,",",Q7,",",S7,",",U7,",",W7,",",Y7)</f>
         <v>1,1,0,1,1,1,0,1</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -4090,70 +4096,70 @@
         <v>33</v>
       </c>
       <c r="J17" s="23"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="J18" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K18" s="29" t="str">
+      <c r="K18" s="31" t="str">
         <f t="shared" ref="K18" si="1">CONCATENATE(K9,",",M9,",",O9,",",Q9,",",S9,",",U9,",",W9,",",Y9)</f>
         <v>0,1,0,1,1,0,0,1</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="J19" s="23">
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
-      <c r="K19" s="29" t="str">
+      <c r="K19" s="31" t="str">
         <f t="shared" ref="K19:K21" si="2">CONCATENATE(K10,",",M10,",",O10,",",Q10,",",S10,",",U10,",",W10,",",Y10)</f>
         <v>0,1,0,1,1,0,0,1</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="J20" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K20" s="29" t="str">
+      <c r="K20" s="31" t="str">
         <f t="shared" si="2"/>
         <v>0,1,1,1,1,0,0,1</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="J21" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="29" t="str">
+      <c r="K21" s="31" t="str">
         <f t="shared" si="2"/>
         <v>,,,,,,,</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="K14:N14"/>
@@ -4161,11 +4167,11 @@
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4175,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
